--- a/planilha/fevereiro/Escala ASO1 - Lagoinha - 2° Turno - Fevereiro.xlsx
+++ b/planilha/fevereiro/Escala ASO1 - Lagoinha - 2° Turno - Fevereiro.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>Escala ASO1 - Lagoinha - 2° Turno - Fevereiro</t>
   </si>
@@ -73,36 +73,33 @@
     <t>Hudson Coelho</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Kalebe Daniel</t>
+  </si>
+  <si>
+    <t>Jonnys Silva</t>
+  </si>
+  <si>
+    <t>Jessica Liria</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Kalebe Daniel</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Jonnys Silva</t>
-  </si>
-  <si>
-    <t>Jessica Liria</t>
-  </si>
-  <si>
     <t>Neimar Monteiro</t>
   </si>
   <si>
-    <t>2</t>
+    <t>5</t>
   </si>
   <si>
     <t>Paulo Henrique</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Vladimir Paula</t>
   </si>
   <si>
@@ -127,7 +124,7 @@
     <t>Iandra Miranda</t>
   </si>
   <si>
-    <t>29/01/20</t>
+    <t>13/02/20</t>
   </si>
 </sst>
 </file>
@@ -818,38 +815,38 @@
       <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>19</v>
@@ -857,44 +854,44 @@
       <c r="R4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>7</v>
+      <c r="S4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>9</v>
+      <c r="V4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AC4" s="3" t="s">
-        <v>8</v>
+      <c r="AC4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF4" s="3" t="n"/>
       <c r="AG4" s="3" t="n"/>
@@ -948,7 +945,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>13</v>
@@ -969,13 +966,13 @@
         <v>19</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
@@ -990,7 +987,7 @@
         <v>9</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>19</v>
@@ -1002,28 +999,28 @@
         <v>19</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AB5" s="4" t="s">
         <v>19</v>
@@ -1032,10 +1029,10 @@
         <v>19</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AF5" s="5" t="n"/>
       <c r="AG5" s="5" t="n"/>
@@ -1086,10 +1083,10 @@
     </row>
     <row customHeight="1" ht="20" r="6" spans="1:48">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -1110,16 +1107,16 @@
         <v>19</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>19</v>
@@ -1128,10 +1125,10 @@
         <v>7</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>19</v>
@@ -1143,28 +1140,28 @@
         <v>19</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="W6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AB6" s="4" t="s">
         <v>19</v>
@@ -1173,7 +1170,7 @@
         <v>19</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE6" s="3" t="s">
         <v>14</v>
@@ -1227,11 +1224,11 @@
     </row>
     <row customHeight="1" ht="20" r="7" spans="1:48">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1248,16 +1245,16 @@
         <v>19</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>19</v>
@@ -1266,10 +1263,10 @@
         <v>10</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>19</v>
@@ -1281,10 +1278,10 @@
         <v>19</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="U7" s="5" t="s">
         <v>7</v>
@@ -1293,16 +1290,16 @@
         <v>19</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AA7" s="4" t="s">
         <v>19</v>
@@ -1311,13 +1308,13 @@
         <v>19</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AD7" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE7" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AF7" s="5" t="n"/>
       <c r="AG7" s="5" t="n"/>
@@ -1379,20 +1376,20 @@
       <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>19</v>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>13</v>
+        <v>13</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>19</v>
@@ -1400,62 +1397,62 @@
       <c r="K8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>19</v>
+      <c r="L8" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="U8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V8" s="4" t="s">
-        <v>19</v>
+      <c r="V8" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD8" s="3" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="AE8" s="4" t="s">
         <v>19</v>
@@ -1512,7 +1509,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>14</v>
@@ -1542,7 +1539,7 @@
         <v>19</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>9</v>
@@ -1554,16 +1551,16 @@
         <v>19</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T9" s="4" t="s">
         <v>19</v>
@@ -1572,13 +1569,13 @@
         <v>19</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="Y9" s="5" t="s">
         <v>9</v>
@@ -1587,7 +1584,7 @@
         <v>19</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AB9" s="5" t="s">
         <v>14</v>
@@ -1650,11 +1647,11 @@
     </row>
     <row customHeight="1" ht="20" r="10" spans="1:48">
       <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
@@ -1664,46 +1661,46 @@
       <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="F10" s="3" t="s"/>
       <c r="G10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="3" t="s"/>
+      <c r="H10" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="I10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="3" t="s"/>
       <c r="K10" s="3" t="s"/>
-      <c r="L10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="3" t="s"/>
+      <c r="L10" s="3" t="s"/>
+      <c r="M10" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="N10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="P10" s="3" t="s"/>
       <c r="Q10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="S10" s="3" t="s"/>
+        <v>7</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="T10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="U10" s="3" t="s"/>
-      <c r="V10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W10" s="3" t="s"/>
+      <c r="V10" s="3" t="s"/>
+      <c r="W10" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="X10" s="4" t="s">
         <v>19</v>
       </c>
@@ -1713,13 +1710,13 @@
       <c r="Z10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="AA10" s="3" t="s"/>
       <c r="AB10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC10" s="3" t="s"/>
+        <v>9</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="AD10" s="4" t="s">
         <v>19</v>
       </c>
@@ -1773,10 +1770,10 @@
     </row>
     <row customHeight="1" ht="20" r="11" spans="1:48">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>19</v>
@@ -1792,7 +1789,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>19</v>
@@ -1801,7 +1798,7 @@
       <c r="K11" s="5" t="s"/>
       <c r="L11" s="5" t="s"/>
       <c r="M11" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>19</v>
@@ -1814,7 +1811,7 @@
         <v>7</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="S11" s="5" t="s">
         <v>13</v>
@@ -1825,7 +1822,7 @@
       <c r="U11" s="5" t="s"/>
       <c r="V11" s="5" t="s"/>
       <c r="W11" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="X11" s="4" t="s">
         <v>19</v>
@@ -1838,10 +1835,10 @@
       </c>
       <c r="AA11" s="5" t="s"/>
       <c r="AB11" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AC11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD11" s="4" t="s">
         <v>19</v>
@@ -1896,10 +1893,10 @@
     </row>
     <row customHeight="1" ht="20" r="12" spans="1:48">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>19</v>
@@ -1915,7 +1912,7 @@
         <v>14</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>19</v>
@@ -1924,7 +1921,7 @@
       <c r="K12" s="3" t="s"/>
       <c r="L12" s="3" t="s"/>
       <c r="M12" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>19</v>
@@ -1934,10 +1931,10 @@
       </c>
       <c r="P12" s="3" t="s"/>
       <c r="Q12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>14</v>
@@ -1948,7 +1945,7 @@
       <c r="U12" s="3" t="s"/>
       <c r="V12" s="3" t="s"/>
       <c r="W12" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="X12" s="4" t="s">
         <v>19</v>
@@ -1961,7 +1958,7 @@
       </c>
       <c r="AA12" s="3" t="s"/>
       <c r="AB12" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AC12" s="3" t="s">
         <v>10</v>
@@ -2019,10 +2016,10 @@
     </row>
     <row customHeight="1" ht="20" r="13" spans="1:48">
       <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>19</v>
@@ -2054,13 +2051,13 @@
       </c>
       <c r="O13" s="5" t="s"/>
       <c r="P13" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Q13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>19</v>
@@ -2081,10 +2078,10 @@
       </c>
       <c r="Z13" s="5" t="s"/>
       <c r="AA13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AC13" s="4" t="s">
         <v>19</v>
@@ -2140,10 +2137,10 @@
     </row>
     <row customHeight="1" ht="20" r="14" spans="1:48">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>19</v>
@@ -2151,46 +2148,46 @@
       <c r="D14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="3" t="s"/>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s"/>
       <c r="G14" s="3" t="s"/>
       <c r="H14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="3" t="s"/>
+      <c r="I14" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="J14" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="L14" s="3" t="s"/>
       <c r="M14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O14" s="3" t="s"/>
-      <c r="P14" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s"/>
       <c r="Q14" s="3" t="s"/>
       <c r="R14" s="3" t="s"/>
       <c r="S14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="T14" s="3" t="s"/>
+      <c r="T14" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="U14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="V14" s="3" t="s"/>
       <c r="W14" s="4" t="s">
         <v>19</v>
       </c>
@@ -2200,17 +2197,19 @@
       <c r="Y14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Z14" s="3" t="s"/>
-      <c r="AA14" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="Z14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA14" s="3" t="s"/>
       <c r="AB14" s="3" t="s"/>
       <c r="AC14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AD14" s="3" t="s"/>
+      <c r="AD14" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="AE14" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF14" s="3" t="n"/>
       <c r="AG14" s="3" t="n"/>
@@ -2261,10 +2260,10 @@
     </row>
     <row customHeight="1" ht="20" r="15" spans="1:48">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>19</v>
@@ -2281,13 +2280,13 @@
         <v>19</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L15" s="5" t="s"/>
       <c r="M15" s="4" t="s">
@@ -2297,7 +2296,7 @@
         <v>19</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P15" s="5" t="s"/>
       <c r="Q15" s="5" t="s"/>
@@ -2306,10 +2305,10 @@
         <v>19</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V15" s="5" t="s"/>
       <c r="W15" s="4" t="s">
@@ -2322,7 +2321,7 @@
         <v>19</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AA15" s="5" t="s"/>
       <c r="AB15" s="5" t="s"/>
@@ -2330,10 +2329,10 @@
         <v>19</v>
       </c>
       <c r="AD15" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF15" s="5" t="n"/>
       <c r="AG15" s="5" t="n"/>
@@ -2702,7 +2701,7 @@
     <row r="29" spans="1:48"/>
     <row r="30" spans="1:48">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
